--- a/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
+++ b/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA9DAA7-A7F7-4F11-A68C-AAAF8C9D2A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E79D67-9BF8-4D8C-80ED-1C4D374B25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>CRC</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>Total Harmonic Distortion / Klirrfaktor</t>
+  </si>
+  <si>
+    <t>BLE</t>
+  </si>
+  <si>
+    <t>Bluetooth Low Energy</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>Wireless Local Area Network</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Battery Management System | Akku-Laderegelung</t>
+  </si>
+  <si>
+    <t>PPTC</t>
+  </si>
+  <si>
+    <t>Polymeric Positive Temperature Coefficient</t>
   </si>
 </sst>
 </file>
@@ -482,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,6 +678,38 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
+++ b/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E79D67-9BF8-4D8C-80ED-1C4D374B25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FEF26-36B5-449E-B7DE-2012721EB9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>CRC</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Polymeric Positive Temperature Coefficient</t>
+  </si>
+  <si>
+    <t>PLL</t>
+  </si>
+  <si>
+    <t>Phase Locked Loop</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,26 +534,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,157 +566,168 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
+++ b/Dokumentation/tables/BAT_Fremdwörterverzeichnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FEF26-36B5-449E-B7DE-2012721EB9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1AE4A8-35CD-46E3-8BFD-C5110123C4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>CRC</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Phase Locked Loop</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>Root Mean Square | Effektivwert eines Signals</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,47 +692,55 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
